--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nacho\Desktop\Tp Covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nacho\Desktop\Tp Covid19\TpCovid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58516B2-4EBD-4843-893E-5D879AF156B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12ADF6-ECD3-4F45-8F45-503A9D158D37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CD4AA3E-2BDC-4A33-83F3-716B3CE4490D}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{4CD4AA3E-2BDC-4A33-83F3-716B3CE4490D}"/>
   </bookViews>
   <sheets>
     <sheet name="Argentina" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,11 +151,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -177,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +508,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="1" sqref="B14 A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -658,6 +672,9 @@
       <c r="D11" s="1">
         <v>1320</v>
       </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="6" t="s">
